--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/mobile/Containers/Shared/AppGroup/9172FF96-C75D-4324-9B48-C611D3B9DFD6/File Provider Storage/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo.saad\Documents\GitHub\Quran-QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_CFA2B043DC7BA74444A9C307163FED3039B24E05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB8FC27-271D-C94C-980C-A78EAD1416CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E714D-20CA-4610-9735-2E5E266CF1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -24,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>wissamantoun</t>
   </si>
@@ -54,14 +54,27 @@
   <si>
     <t>f1</t>
   </si>
+  <si>
+    <t>F1@1</t>
+  </si>
+  <si>
+    <t>Exact Match</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -98,16 +111,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,7 +141,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ar-SA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -241,7 +257,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>exact_match</c:v>
+                  <c:v>Exact Match</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -331,7 +347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1</c:v>
+                  <c:v>F1@1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,7 +494,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ar-SA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -594,7 +610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>exact_match</c:v>
+                  <c:v>Exact Match</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,7 +700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1</c:v>
+                  <c:v>F1@1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,6 +842,1925 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wissamantoun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.48850774449538198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53356028942024203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54233373118364803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53937733475469196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55195806483981003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57120459628782205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.579784266216127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59012497146743603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58676701173918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57322437122347802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.570861747624962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57202747412738997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57771146017608999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57491230306104402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56502938455075702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55921617902530096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57372649910081497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57022177977833999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57317984541495803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56942635297176902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wissamantoun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exact_match</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.23853211009174299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27522935779816499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27522935779816499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28440366972477099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25688073394495398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27522935779816499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.293577981651376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33027522935779802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.293577981651376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28440366972477099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wissamantoun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.463809517993163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51285974535548196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51802451160741303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51504195100197603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52473469255966199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53906927996662701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53186044236101304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54441545483180598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53445829653799104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53922241704493401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53629116633261897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54712311531679303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55050436367142697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54934005053545498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.525930612341592</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52105711005628097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54669808773968198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53495678502012101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53930860585912999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52451347933430403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>salti</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.44064550391811602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51027732549301696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.557798798920907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57231414260966695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56992097225133198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58426314608845598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58476740773161595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62305755341726998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60930854283825997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57936026726469803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59361171294494497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.592717784294303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59938828248354004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60326445201565904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61512584651067204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59530454042231595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.599490562515681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57983953861575999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58737813057761801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61380957888657695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>salti</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exact_match</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.119266055045872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21100917431192701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26605504587155998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28440366972477099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33944954128440402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28440366972477099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.293577981651376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.302752293577982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31192660550458701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32110091743119301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>salti</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.41032869352716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47353475710090998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52493697796098004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53005960446453904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52458954135398495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54440287707770696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54689347010003397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58922878527829903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57180884735892101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.543873702103153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55773198317490202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54559595621220702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56262695189414202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56351036630266804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58020064017100403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56370945264753103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.570372339960866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55247365347968702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55616776423979297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58566525569061001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1839-4B80-963D-87784A3DD36F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2020600672"/>
+        <c:axId val="2020601920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2020600672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020601920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2020601920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020600672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,8 +2843,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31624574-DBDE-4CAB-8655-AA2AA9AB33D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,16 +3207,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7421875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1249,7 +3225,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1257,14 +3233,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1279,7 +3255,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1294,7 +3270,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1309,7 +3285,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1324,7 +3300,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1339,7 +3315,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1354,7 +3330,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1369,7 +3345,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1384,7 +3360,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1399,7 +3375,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1414,7 +3390,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1429,7 +3405,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1444,7 +3420,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1459,7 +3435,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1474,7 +3450,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1489,7 +3465,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1504,7 +3480,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1519,7 +3495,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1534,7 +3510,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1549,7 +3525,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1564,14 +3540,14 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1579,13 +3555,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1599,7 +3575,7 @@
         <v>0.41032869352716</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1613,7 +3589,7 @@
         <v>0.47353475710090998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1627,7 +3603,7 @@
         <v>0.52493697796098004</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1641,7 +3617,7 @@
         <v>0.53005960446453904</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1655,7 +3631,7 @@
         <v>0.52458954135398495</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1669,7 +3645,7 @@
         <v>0.54440287707770696</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1683,7 +3659,7 @@
         <v>0.54689347010003397</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1697,7 +3673,7 @@
         <v>0.58922878527829903</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -1711,7 +3687,7 @@
         <v>0.57180884735892101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -1725,7 +3701,7 @@
         <v>0.543873702103153</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -1739,7 +3715,7 @@
         <v>0.55773198317490202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -1753,7 +3729,7 @@
         <v>0.54559595621220702</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>13</v>
       </c>
@@ -1767,7 +3743,7 @@
         <v>0.56262695189414202</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>14</v>
       </c>
@@ -1781,7 +3757,7 @@
         <v>0.56351036630266804</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>15</v>
       </c>
@@ -1795,7 +3771,7 @@
         <v>0.58020064017100403</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>16</v>
       </c>
@@ -1809,7 +3785,7 @@
         <v>0.56370945264753103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>17</v>
       </c>
@@ -1823,7 +3799,7 @@
         <v>0.570372339960866</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>18</v>
       </c>
@@ -1837,7 +3813,7 @@
         <v>0.55247365347968702</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>19</v>
       </c>
@@ -1851,7 +3827,7 @@
         <v>0.55616776423979297</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -1870,12 +3846,532 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B24:D24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FFF38F26-C22F-4D1A-8989-42F4F3D08CDE}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{10A2D6E8-CA51-46AD-85EC-53D1E5A21176}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE32975B-72C3-40F0-86DF-2D5824A64A7F}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.48850774449538198</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.23853211009174299</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.463809517993163</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.44064550391811602</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.119266055045872</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.41032869352716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.53356028942024203</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.27522935779816499</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.51285974535548196</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.51027732549301696</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.21100917431192701</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.47353475710090998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.54233373118364803</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.27522935779816499</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51802451160741303</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.557798798920907</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.52493697796098004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.53937733475469196</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.28440366972477099</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.51504195100197603</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.57231414260966695</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.26605504587155998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.53005960446453904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.55195806483981003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25688073394495398</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.52473469255966199</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.56992097225133198</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.28440366972477099</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.52458954135398495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.57120459628782205</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.27522935779816499</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53906927996662701</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.58426314608845598</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.54440287707770696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.579784266216127</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.293577981651376</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.53186044236101304</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.58476740773161595</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.54689347010003397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.59012497146743603</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.33027522935779802</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.54441545483180598</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.62305755341726998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.33944954128440402</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.58922878527829903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.58676701173918</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.53445829653799104</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.60930854283825997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.57180884735892101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.57322437122347802</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.53922241704493401</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.57936026726469803</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.28440366972477099</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.543873702103153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.570861747624962</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.53629116633261897</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.59361171294494497</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.293577981651376</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.55773198317490202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.57202747412738997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.54712311531679303</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.592717784294303</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.54559595621220702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.57771146017608999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.55050436367142697</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.59938828248354004</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.56262695189414202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.57491230306104402</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54934005053545498</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.60326445201565904</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.56351036630266804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.56502938455075702</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.525930612341592</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.61512584651067204</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.58020064017100403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.55921617902530096</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.293577981651376</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.52105711005628097</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.59530454042231595</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.56370945264753103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.57372649910081497</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.28440366972477099</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.54669808773968198</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.599490562515681</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.570372339960866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.57022177977833999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.53495678502012101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.57983953861575999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.55247365347968702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.57317984541495803</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.302752293577982</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.53930860585912999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.58737813057761801</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.55616776423979297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.56942635297176902</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.31192660550458701</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.52451347933430403</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.61380957888657695</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.32110091743119301</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.58566525569061001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>